--- a/data/trans_orig/P21_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>112781</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>93414</v>
+        <v>93768</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>132404</v>
+        <v>131737</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.162506031592243</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1345998074697623</v>
+        <v>0.1351095201120478</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.19078103294554</v>
+        <v>0.1898196902546778</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>138</v>
@@ -765,19 +765,19 @@
         <v>136096</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>116702</v>
+        <v>116909</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>158383</v>
+        <v>159233</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.197983436054102</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1697702797372762</v>
+        <v>0.1700721330626434</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2304056786326855</v>
+        <v>0.2316420305388696</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>250</v>
@@ -786,19 +786,19 @@
         <v>248877</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>218920</v>
+        <v>218401</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>277053</v>
+        <v>278104</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1801599628570046</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.158474164673006</v>
+        <v>0.1580982313653549</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2005561164862651</v>
+        <v>0.2013172707867319</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>581231</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>561608</v>
+        <v>562275</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>600598</v>
+        <v>600244</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.837493968407757</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8092189670544601</v>
+        <v>0.8101803097453223</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8654001925302377</v>
+        <v>0.8648904798879523</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>557</v>
@@ -836,19 +836,19 @@
         <v>551314</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>529027</v>
+        <v>528177</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>570708</v>
+        <v>570501</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8020165639458979</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7695943213673145</v>
+        <v>0.7683579694611306</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8302297202627238</v>
+        <v>0.8299278669373567</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1128</v>
@@ -857,19 +857,19 @@
         <v>1132546</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1104370</v>
+        <v>1103319</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1162503</v>
+        <v>1163022</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8198400371429955</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7994438835137347</v>
+        <v>0.7986827292132682</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8415258353269939</v>
+        <v>0.8419017686346453</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>186619</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>161170</v>
+        <v>159059</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>211596</v>
+        <v>212133</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.194030877513456</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1675710977875874</v>
+        <v>0.1653761479857386</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.220000390439457</v>
+        <v>0.2205587596006711</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>268</v>
@@ -982,19 +982,19 @@
         <v>283932</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>253764</v>
+        <v>259052</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>316090</v>
+        <v>313802</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2931990324002968</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2620465803261302</v>
+        <v>0.2675073187489135</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3264065311565579</v>
+        <v>0.3240441497368691</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>441</v>
@@ -1003,19 +1003,19 @@
         <v>470551</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>428325</v>
+        <v>435341</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>508242</v>
+        <v>512571</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2437843216645535</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2219076387768297</v>
+        <v>0.2255426494303884</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2633113021093933</v>
+        <v>0.2655541166240389</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>775181</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>750204</v>
+        <v>749667</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>800630</v>
+        <v>802741</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.805969122486544</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7799996095605434</v>
+        <v>0.7794412403993292</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8324289022124129</v>
+        <v>0.8346238520142615</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>640</v>
@@ -1053,19 +1053,19 @@
         <v>684461</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>652303</v>
+        <v>654591</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>714629</v>
+        <v>709341</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7068009675997032</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6735934688434422</v>
+        <v>0.6759558502631311</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.73795341967387</v>
+        <v>0.7324926812510867</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1363</v>
@@ -1074,19 +1074,19 @@
         <v>1459642</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1421951</v>
+        <v>1417622</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1501868</v>
+        <v>1494852</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7562156783354465</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7366886978906066</v>
+        <v>0.7344458833759613</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7780923612231703</v>
+        <v>0.7744573505696117</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>123654</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>101910</v>
+        <v>105635</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143437</v>
+        <v>147178</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1822435502286853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.15019753268378</v>
+        <v>0.1556870195903402</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2114007395494974</v>
+        <v>0.2169138410023242</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>180</v>
@@ -1199,19 +1199,19 @@
         <v>176539</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>153369</v>
+        <v>154783</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>200691</v>
+        <v>200122</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2581575434874355</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2242764716798548</v>
+        <v>0.2263441724559902</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2934760029058975</v>
+        <v>0.2926441655063668</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>297</v>
@@ -1220,19 +1220,19 @@
         <v>300193</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>265588</v>
+        <v>274292</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>331777</v>
+        <v>334668</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2203491072964459</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1949486318476951</v>
+        <v>0.2013373929463169</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2435325427523842</v>
+        <v>0.2456550900876647</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>554855</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>535072</v>
+        <v>531331</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>576599</v>
+        <v>572874</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8177564497713148</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7885992604505025</v>
+        <v>0.7830861589976758</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8498024673162199</v>
+        <v>0.8443129804096597</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>516</v>
@@ -1270,19 +1270,19 @@
         <v>507302</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>483150</v>
+        <v>483719</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>530472</v>
+        <v>529058</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7418424565125644</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7065239970941029</v>
+        <v>0.7073558344936337</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7757235283201452</v>
+        <v>0.7736558275440099</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1040</v>
@@ -1291,19 +1291,19 @@
         <v>1062157</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1030573</v>
+        <v>1027682</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1096762</v>
+        <v>1088058</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7796508927035541</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7564674572476159</v>
+        <v>0.7543449099123356</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8050513681523053</v>
+        <v>0.7986626070536831</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>137292</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>117224</v>
+        <v>117815</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>160721</v>
+        <v>160306</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1458482351999705</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1245295391833774</v>
+        <v>0.1251575658529941</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1707366505318814</v>
+        <v>0.1702965196165855</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>217</v>
@@ -1416,19 +1416,19 @@
         <v>227442</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>200931</v>
+        <v>200910</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>256911</v>
+        <v>252262</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2189865862855028</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1934609783669071</v>
+        <v>0.1934412141424707</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.247360359878386</v>
+        <v>0.2428834030450396</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>364</v>
@@ -1437,19 +1437,19 @@
         <v>364734</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>331323</v>
+        <v>332802</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>398228</v>
+        <v>398878</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1842140510271374</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1673389830952091</v>
+        <v>0.1680863429174055</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2011304058042666</v>
+        <v>0.2014588922229407</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>804045</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>780616</v>
+        <v>781031</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>824113</v>
+        <v>823522</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8541517648000295</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8292633494681185</v>
+        <v>0.8297034803834147</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8754704608166226</v>
+        <v>0.8748424341470064</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>780</v>
@@ -1487,19 +1487,19 @@
         <v>811170</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>781701</v>
+        <v>786350</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>837681</v>
+        <v>837702</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7810134137144972</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.752639640121614</v>
+        <v>0.7571165969549604</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8065390216330929</v>
+        <v>0.8065587858575293</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1626</v>
@@ -1508,19 +1508,19 @@
         <v>1615215</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1581721</v>
+        <v>1581071</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1648626</v>
+        <v>1647147</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8157859489728626</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7988695941957333</v>
+        <v>0.7985411077770593</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8326610169047908</v>
+        <v>0.8319136570825946</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>560346</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>515800</v>
+        <v>516376</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>601904</v>
+        <v>606568</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.171063724049147</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.157464536887354</v>
+        <v>0.1576402926281555</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1837504062115604</v>
+        <v>0.1851744090263748</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>803</v>
@@ -1633,19 +1633,19 @@
         <v>824009</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>771084</v>
+        <v>775698</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>872176</v>
+        <v>874941</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2439153450952016</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2282491563117224</v>
+        <v>0.22961495712072</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2581733691087022</v>
+        <v>0.2589919036990064</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1352</v>
@@ -1654,19 +1654,19 @@
         <v>1384355</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1314990</v>
+        <v>1323385</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1448714</v>
+        <v>1456717</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2080511926119917</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1976265454514131</v>
+        <v>0.1988881852235971</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2177234842244514</v>
+        <v>0.2189262489467894</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2715313</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2673755</v>
+        <v>2669091</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2759859</v>
+        <v>2759283</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8289362759508531</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8162495937884396</v>
+        <v>0.8148255909736249</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.842535463112646</v>
+        <v>0.8423597073718442</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2493</v>
@@ -1704,19 +1704,19 @@
         <v>2554248</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2506081</v>
+        <v>2503316</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2607173</v>
+        <v>2602559</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7560846549047984</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7418266308912977</v>
+        <v>0.7410080963009938</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7717508436882775</v>
+        <v>0.7703850428792802</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5157</v>
@@ -1725,19 +1725,19 @@
         <v>5269560</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5205201</v>
+        <v>5197198</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5338925</v>
+        <v>5330530</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7919488073880083</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7822765157755485</v>
+        <v>0.7810737510532103</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8023734545485869</v>
+        <v>0.8011118147764028</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>141424</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>122322</v>
+        <v>120994</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>164954</v>
+        <v>163987</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2012453387807834</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1740634350299428</v>
+        <v>0.1721747333083302</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2347295585544663</v>
+        <v>0.2333523624330668</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>181</v>
@@ -2090,19 +2090,19 @@
         <v>193387</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>171973</v>
+        <v>170645</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>218502</v>
+        <v>219829</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2774360547977284</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2467156199665317</v>
+        <v>0.2448099606376484</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3134671888673915</v>
+        <v>0.3153705641855206</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>316</v>
@@ -2111,19 +2111,19 @@
         <v>334810</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>301920</v>
+        <v>300974</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>365673</v>
+        <v>366828</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2391857844955916</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2156893646049761</v>
+        <v>0.2150134979224892</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.261233568477908</v>
+        <v>0.2620588699477532</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>561318</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>537788</v>
+        <v>538755</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>580420</v>
+        <v>581748</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7987546612192167</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7652704414455337</v>
+        <v>0.7666476375669328</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8259365649700572</v>
+        <v>0.8278252666916693</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>469</v>
@@ -2161,19 +2161,19 @@
         <v>503663</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>478548</v>
+        <v>477221</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>525077</v>
+        <v>526405</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7225639452022716</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6865328111326084</v>
+        <v>0.6846294358144794</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7532843800334683</v>
+        <v>0.7551900393623516</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1007</v>
@@ -2182,19 +2182,19 @@
         <v>1064982</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1034119</v>
+        <v>1032964</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1097872</v>
+        <v>1098818</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7608142155044084</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.738766431522092</v>
+        <v>0.7379411300522467</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7843106353950234</v>
+        <v>0.7849865020775106</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>228909</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>202061</v>
+        <v>200218</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>259202</v>
+        <v>259280</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2248727363585965</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1984986514241749</v>
+        <v>0.1966878107626111</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2546319594972216</v>
+        <v>0.2547089429806888</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>270</v>
@@ -2307,19 +2307,19 @@
         <v>300481</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>272050</v>
+        <v>271943</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>331253</v>
+        <v>331482</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2911120028639326</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2635672125936418</v>
+        <v>0.2634639291653303</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3209241917523916</v>
+        <v>0.3211459492429214</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>481</v>
@@ -2328,19 +2328,19 @@
         <v>529390</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>489295</v>
+        <v>490143</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>572632</v>
+        <v>565835</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2582223647176696</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2386652364043796</v>
+        <v>0.239078651593915</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.279315036036018</v>
+        <v>0.2759992474058789</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>789038</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>758745</v>
+        <v>758667</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>815886</v>
+        <v>817729</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7751272636414035</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7453680405027785</v>
+        <v>0.745291057019312</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8015013485758251</v>
+        <v>0.803312189237389</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>670</v>
@@ -2378,19 +2378,19 @@
         <v>731703</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>700931</v>
+        <v>700702</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>760134</v>
+        <v>760241</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7088879971360674</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6790758082476088</v>
+        <v>0.6788540507570786</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7364327874063583</v>
+        <v>0.7365360708346697</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1395</v>
@@ -2399,19 +2399,19 @@
         <v>1520741</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1477499</v>
+        <v>1484296</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1560836</v>
+        <v>1559988</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7417776352823304</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7206849639639825</v>
+        <v>0.7240007525941212</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7613347635956211</v>
+        <v>0.7609213484060852</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>183822</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>161045</v>
+        <v>160327</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>208698</v>
+        <v>210135</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2426299373799085</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2125663125751344</v>
+        <v>0.2116180772858783</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2754642833969003</v>
+        <v>0.2773612273334804</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>239</v>
@@ -2524,19 +2524,19 @@
         <v>258015</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>231307</v>
+        <v>231174</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>285775</v>
+        <v>285033</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3324018627872884</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2979929921858256</v>
+        <v>0.2978226925166778</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3681642909053518</v>
+        <v>0.3672094338348703</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>408</v>
@@ -2545,19 +2545,19 @@
         <v>441837</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>406453</v>
+        <v>405661</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>480748</v>
+        <v>478639</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2880599662811644</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2649910291209449</v>
+        <v>0.2644747787970738</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3134284380970125</v>
+        <v>0.3120530475857799</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>573801</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>548925</v>
+        <v>547488</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>596578</v>
+        <v>597296</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7573700626200914</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7245357166030996</v>
+        <v>0.7226387726665194</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7874336874248655</v>
+        <v>0.7883819227141216</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>465</v>
@@ -2595,19 +2595,19 @@
         <v>518200</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>490440</v>
+        <v>491182</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>544908</v>
+        <v>545041</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6675981372127117</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6318357090946481</v>
+        <v>0.6327905661651294</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7020070078141742</v>
+        <v>0.7021773074833222</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>985</v>
@@ -2616,19 +2616,19 @@
         <v>1092001</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1053090</v>
+        <v>1055199</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1127385</v>
+        <v>1128177</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7119400337188356</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6865715619029876</v>
+        <v>0.68794695241422</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7350089708790553</v>
+        <v>0.7355252212029261</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>152403</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>130562</v>
+        <v>130519</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>177576</v>
+        <v>175884</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1611393714626282</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1380466593650669</v>
+        <v>0.13800057737402</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1877546962318855</v>
+        <v>0.1859656686788415</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>218</v>
@@ -2741,19 +2741,19 @@
         <v>227589</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>201326</v>
+        <v>200880</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>255141</v>
+        <v>256140</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2168023674615234</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1917840439436592</v>
+        <v>0.191359562693363</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.243047986355631</v>
+        <v>0.2439997549769147</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>366</v>
@@ -2762,19 +2762,19 @@
         <v>379993</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>344454</v>
+        <v>347000</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>417039</v>
+        <v>421246</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1904209086904355</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1726121564904515</v>
+        <v>0.1738876967854837</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2089856026196268</v>
+        <v>0.2110939549873853</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>793382</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>768209</v>
+        <v>769901</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>815223</v>
+        <v>815266</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8388606285373719</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.812245303768115</v>
+        <v>0.8140343313211587</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8619533406349331</v>
+        <v>0.8619994226259802</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>783</v>
@@ -2812,19 +2812,19 @@
         <v>822165</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>794613</v>
+        <v>793614</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>848428</v>
+        <v>848874</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7831976325384766</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.756952013644369</v>
+        <v>0.7560002450230854</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8082159560563409</v>
+        <v>0.8086404373066374</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1543</v>
@@ -2833,19 +2833,19 @@
         <v>1615547</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1578501</v>
+        <v>1574294</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1651086</v>
+        <v>1648540</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8095790913095645</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7910143973803732</v>
+        <v>0.7889060450126147</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8273878435095482</v>
+        <v>0.8261123032145162</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>706558</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>659024</v>
+        <v>658971</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>761583</v>
+        <v>759415</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2063485053197523</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1924663082287617</v>
+        <v>0.1924509127457591</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2224187144832533</v>
+        <v>0.2217852855863815</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>908</v>
@@ -2958,19 +2958,19 @@
         <v>979472</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>927659</v>
+        <v>927459</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1034381</v>
+        <v>1037634</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2755039324934101</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.26092990954489</v>
+        <v>0.2608736943545716</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2909485939726816</v>
+        <v>0.2918636050331002</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1571</v>
@@ -2979,19 +2979,19 @@
         <v>1686030</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1619238</v>
+        <v>1611810</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1759638</v>
+        <v>1761978</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2415757574292543</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2320057498353366</v>
+        <v>0.230941461576987</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2521224223730026</v>
+        <v>0.2524577271466536</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2717540</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2662515</v>
+        <v>2664683</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2765074</v>
+        <v>2765127</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7936514946802476</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7775812855167464</v>
+        <v>0.7782147144136183</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8075336917712382</v>
+        <v>0.8075490872542405</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2387</v>
@@ -3029,19 +3029,19 @@
         <v>2575731</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2520822</v>
+        <v>2517569</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2627544</v>
+        <v>2627744</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7244960675065899</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7090514060273183</v>
+        <v>0.7081363949668995</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7390700904551096</v>
+        <v>0.7391263056454281</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4930</v>
@@ -3050,19 +3050,19 @@
         <v>5293271</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5219663</v>
+        <v>5217323</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5360063</v>
+        <v>5367491</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7584242425707457</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7478775776269975</v>
+        <v>0.7475422728533464</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7679942501646635</v>
+        <v>0.769058538423013</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>105882</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89472</v>
+        <v>88044</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>126603</v>
+        <v>126949</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1573618772749038</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1329740124965849</v>
+        <v>0.1308513554769392</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1881574094573797</v>
+        <v>0.1886723415475441</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>139</v>
@@ -3415,19 +3415,19 @@
         <v>141271</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>121337</v>
+        <v>120815</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>165823</v>
+        <v>162773</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2099618244042412</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1803362459173854</v>
+        <v>0.1795605071046284</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2464527751914612</v>
+        <v>0.2419193952895025</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>242</v>
@@ -3436,19 +3436,19 @@
         <v>247152</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>218040</v>
+        <v>219298</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>275376</v>
+        <v>278892</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1836615455213</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1620280677207005</v>
+        <v>0.1629629160069551</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2046352911351814</v>
+        <v>0.2072475482821637</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>566973</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>546252</v>
+        <v>545906</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>583383</v>
+        <v>584811</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8426381227250962</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8118425905426203</v>
+        <v>0.8113276584524558</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8670259875034151</v>
+        <v>0.8691486445230608</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>527</v>
@@ -3486,19 +3486,19 @@
         <v>531568</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>507016</v>
+        <v>510066</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>551502</v>
+        <v>552024</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7900381755957587</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7535472248085386</v>
+        <v>0.7580806047104974</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8196637540826146</v>
+        <v>0.8204394928953712</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1074</v>
@@ -3507,19 +3507,19 @@
         <v>1098542</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1070318</v>
+        <v>1066802</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1127654</v>
+        <v>1126396</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8163384544787</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7953647088648188</v>
+        <v>0.7927524517178363</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8379719322792994</v>
+        <v>0.8370370839930449</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>174586</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>152410</v>
+        <v>149301</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>203440</v>
+        <v>198946</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1717344400482187</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1499211459618117</v>
+        <v>0.1468620212658396</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2001170783042526</v>
+        <v>0.1956968229181023</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>200</v>
@@ -3632,19 +3632,19 @@
         <v>217248</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>191713</v>
+        <v>192133</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>242939</v>
+        <v>244921</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2089842953280142</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1844202047682414</v>
+        <v>0.1848247885191278</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2336972348920984</v>
+        <v>0.2356039561738223</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>358</v>
@@ -3653,19 +3653,19 @@
         <v>391834</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>356349</v>
+        <v>355866</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>432022</v>
+        <v>431391</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1905671689412197</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1733088558601052</v>
+        <v>0.173074199338681</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2101123444523404</v>
+        <v>0.2098052449287415</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>842018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>813164</v>
+        <v>817658</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>864194</v>
+        <v>867303</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8282655599517813</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7998829216957479</v>
+        <v>0.8043031770818977</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8500788540381885</v>
+        <v>0.8531379787341605</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>774</v>
@@ -3703,19 +3703,19 @@
         <v>822296</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>796605</v>
+        <v>794623</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>847831</v>
+        <v>847411</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7910157046719858</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7663027651079015</v>
+        <v>0.7643960438261778</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8155797952317584</v>
+        <v>0.8151752114808724</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1562</v>
@@ -3724,19 +3724,19 @@
         <v>1664314</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1624126</v>
+        <v>1624757</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1699799</v>
+        <v>1700282</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8094328310587803</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7898876555476592</v>
+        <v>0.7901947550712584</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8266911441398946</v>
+        <v>0.826925800661319</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>128310</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>106831</v>
+        <v>108534</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>151003</v>
+        <v>148931</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1691433092766023</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1408288316608243</v>
+        <v>0.1430745400975159</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1990579814488477</v>
+        <v>0.1963268957596763</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>144</v>
@@ -3849,19 +3849,19 @@
         <v>154983</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>133120</v>
+        <v>132821</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>179292</v>
+        <v>179497</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1977478841426797</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1698526454214403</v>
+        <v>0.1694710529689223</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2287652054793645</v>
+        <v>0.2290266833659856</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>261</v>
@@ -3870,19 +3870,19 @@
         <v>283293</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>249960</v>
+        <v>254483</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>316023</v>
+        <v>317204</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1836788509797053</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1620670007987812</v>
+        <v>0.164999164784397</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2049005829038634</v>
+        <v>0.2056662015384989</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>630276</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>607583</v>
+        <v>609655</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>651755</v>
+        <v>650052</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8308566907233976</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8009420185511522</v>
+        <v>0.8036731042403239</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8591711683391755</v>
+        <v>0.8569254599024846</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>591</v>
@@ -3920,19 +3920,19 @@
         <v>628757</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>604448</v>
+        <v>604243</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>650620</v>
+        <v>650919</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8022521158573204</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7712347945206356</v>
+        <v>0.7709733166340146</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8301473545785597</v>
+        <v>0.8305289470310778</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1169</v>
@@ -3941,19 +3941,19 @@
         <v>1259033</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1226303</v>
+        <v>1225122</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1292366</v>
+        <v>1287843</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8163211490202947</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7950994170961365</v>
+        <v>0.7943337984615011</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8379329992012184</v>
+        <v>0.8350008352156031</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>155812</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>135079</v>
+        <v>133419</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>181749</v>
+        <v>179194</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1665302938251302</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1443710436300335</v>
+        <v>0.1425963400117979</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1942509133304156</v>
+        <v>0.1915205632183347</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>225</v>
@@ -4066,19 +4066,19 @@
         <v>247978</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>221778</v>
+        <v>219995</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>277073</v>
+        <v>275751</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2379916359417183</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2128468570920354</v>
+        <v>0.2111353873190069</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2659147963101334</v>
+        <v>0.2646464381121045</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>377</v>
@@ -4087,19 +4087,19 @@
         <v>403790</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>370868</v>
+        <v>368445</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>447265</v>
+        <v>444326</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2041819186342847</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1875341721100216</v>
+        <v>0.1863092142703395</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2261657533075638</v>
+        <v>0.2246794612226041</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>779828</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>753891</v>
+        <v>756446</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>800561</v>
+        <v>802221</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8334697061748698</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8057490866695846</v>
+        <v>0.8084794367816651</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8556289563699666</v>
+        <v>0.8574036599882017</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>733</v>
@@ -4137,19 +4137,19 @@
         <v>793982</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>764887</v>
+        <v>766209</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>820182</v>
+        <v>821965</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7620083640582817</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.734085203689866</v>
+        <v>0.7353535618878952</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7871531429079645</v>
+        <v>0.7888646126809924</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1511</v>
@@ -4158,19 +4158,19 @@
         <v>1573810</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1530335</v>
+        <v>1533274</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1606732</v>
+        <v>1609155</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7958180813657153</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7738342466924365</v>
+        <v>0.7753205387773959</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8124658278899783</v>
+        <v>0.8136907857296605</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>564590</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>523043</v>
+        <v>520135</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>613874</v>
+        <v>605436</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1668564885274853</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1545779012480986</v>
+        <v>0.153718486892709</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1814217473284463</v>
+        <v>0.1789280006531407</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>708</v>
@@ -4283,19 +4283,19 @@
         <v>761480</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>707435</v>
+        <v>710646</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>809216</v>
+        <v>808683</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.215223769123474</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1999486877075719</v>
+        <v>0.2008562707075933</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2287158568889233</v>
+        <v>0.2285652821353783</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1238</v>
@@ -4304,19 +4304,19 @@
         <v>1326069</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1263701</v>
+        <v>1260580</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1397308</v>
+        <v>1392659</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1915795747036316</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1825691246258811</v>
+        <v>0.1821182271502615</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2018716299385435</v>
+        <v>0.2011998536914071</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2819094</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2769810</v>
+        <v>2778248</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2860641</v>
+        <v>2863549</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8331435114725148</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.818578252671554</v>
+        <v>0.8210719993468595</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8454220987519014</v>
+        <v>0.8462815131072912</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2625</v>
@@ -4354,19 +4354,19 @@
         <v>2776603</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2728867</v>
+        <v>2729400</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2830648</v>
+        <v>2827437</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.784776230876526</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.771284143111077</v>
+        <v>0.7714347178646216</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8000513122924281</v>
+        <v>0.7991437292924066</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5316</v>
@@ -4375,19 +4375,19 @@
         <v>5595698</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5524459</v>
+        <v>5529108</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5658066</v>
+        <v>5661187</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8084204252963684</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7981283700614563</v>
+        <v>0.7988001463085928</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8174308753741188</v>
+        <v>0.8178817728497383</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>138529</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>118424</v>
+        <v>117680</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>164830</v>
+        <v>162658</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2011344952408883</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1719428569634014</v>
+        <v>0.1708624372078229</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2393208823833967</v>
+        <v>0.2361677882755362</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>252</v>
@@ -4740,19 +4740,19 @@
         <v>153684</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>136938</v>
+        <v>135753</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>172350</v>
+        <v>173603</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2096315359454118</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1867891820528041</v>
+        <v>0.1851735172454569</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2350931863529527</v>
+        <v>0.2368021956223423</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>399</v>
@@ -4761,19 +4761,19 @@
         <v>292213</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>261183</v>
+        <v>263537</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>319687</v>
+        <v>321567</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2055156062308062</v>
+        <v>0.2055156062308063</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1836918772229924</v>
+        <v>0.1853480202748297</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2248385900083907</v>
+        <v>0.2261606003627163</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>550210</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>523909</v>
+        <v>526081</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>570315</v>
+        <v>571059</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7988655047591118</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7606791176166032</v>
+        <v>0.7638322117244636</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8280571430365986</v>
+        <v>0.8291375627921769</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>987</v>
@@ -4811,19 +4811,19 @@
         <v>579429</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>560763</v>
+        <v>559510</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>596175</v>
+        <v>597360</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7903684640545882</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7649068136470472</v>
+        <v>0.7631978043776577</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.813210817947196</v>
+        <v>0.8148264827545431</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1569</v>
@@ -4832,19 +4832,19 @@
         <v>1129639</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1102165</v>
+        <v>1100285</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1160669</v>
+        <v>1158315</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7944843937691938</v>
+        <v>0.7944843937691937</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7751614099916093</v>
+        <v>0.7738393996372838</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8163081227770077</v>
+        <v>0.8146519797251701</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>234367</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>204431</v>
+        <v>205561</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>267575</v>
+        <v>264661</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2234368061022929</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1948970904068063</v>
+        <v>0.1959746071353766</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2550963862758827</v>
+        <v>0.2523186980632195</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>367</v>
@@ -4957,19 +4957,19 @@
         <v>260706</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>233634</v>
+        <v>236030</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>285660</v>
+        <v>286193</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2438981334183706</v>
+        <v>0.2438981334183707</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2185720104262879</v>
+        <v>0.2208133699676567</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.267243828054154</v>
+        <v>0.267741716924332</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>574</v>
@@ -4978,19 +4978,19 @@
         <v>495073</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>452509</v>
+        <v>455162</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>537397</v>
+        <v>537825</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.233764065234718</v>
+        <v>0.2337640652347181</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2136665370239406</v>
+        <v>0.214918958735744</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2537489884936359</v>
+        <v>0.2539511861608508</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>814550</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>781342</v>
+        <v>784256</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>844486</v>
+        <v>843356</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7765631938977072</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7449036137241176</v>
+        <v>0.7476813019367811</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8051029095931939</v>
+        <v>0.8040253928646236</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1146</v>
@@ -5028,19 +5028,19 @@
         <v>808207</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>783253</v>
+        <v>782720</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>835279</v>
+        <v>832883</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7561018665816295</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7327561719458461</v>
+        <v>0.732258283075668</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7814279895737122</v>
+        <v>0.7791866300323432</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1903</v>
@@ -5049,19 +5049,19 @@
         <v>1622757</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1580433</v>
+        <v>1580005</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1665321</v>
+        <v>1662668</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7662359347652818</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.746251011506364</v>
+        <v>0.7460488138391496</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7863334629760593</v>
+        <v>0.7850810412642563</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>152799</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129733</v>
+        <v>128692</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>179741</v>
+        <v>182072</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1902681343382092</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1615459377627358</v>
+        <v>0.1602492253677956</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2238167561465361</v>
+        <v>0.2267189424280871</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>279</v>
@@ -5174,19 +5174,19 @@
         <v>217971</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>195021</v>
+        <v>194493</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>244424</v>
+        <v>240196</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2696284940298105</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2412393034742745</v>
+        <v>0.2405855750218206</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3023496178603672</v>
+        <v>0.2971198590495682</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>412</v>
@@ -5195,19 +5195,19 @@
         <v>370771</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>336274</v>
+        <v>338339</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>405284</v>
+        <v>405703</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.230079824046631</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2086732815682306</v>
+        <v>0.2099544405039696</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2514967905236752</v>
+        <v>0.2517569704688941</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>650274</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>623332</v>
+        <v>621001</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>673340</v>
+        <v>674381</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8097318656617909</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7761832438534639</v>
+        <v>0.7732810575719128</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8384540622372643</v>
+        <v>0.8397507746322045</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>765</v>
@@ -5245,19 +5245,19 @@
         <v>590443</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>563990</v>
+        <v>568218</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>613393</v>
+        <v>613921</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7303715059701895</v>
+        <v>0.7303715059701894</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6976503821396329</v>
+        <v>0.7028801409504315</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7587606965257255</v>
+        <v>0.7594144249781792</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1308</v>
@@ -5266,19 +5266,19 @@
         <v>1240716</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1206203</v>
+        <v>1205784</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1275213</v>
+        <v>1273148</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7699201759533689</v>
+        <v>0.769920175953369</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7485032094763248</v>
+        <v>0.748243029531106</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7913267184317694</v>
+        <v>0.7900455594960306</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>207487</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>183142</v>
+        <v>180920</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>239306</v>
+        <v>233193</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2095697187040133</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1849805189913421</v>
+        <v>0.1827355991865782</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2417082671784714</v>
+        <v>0.235533617473394</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>415</v>
@@ -5391,19 +5391,19 @@
         <v>302368</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>276212</v>
+        <v>277430</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>329743</v>
+        <v>328779</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2705209264040506</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2471192245287008</v>
+        <v>0.24820919441238</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2950122303984012</v>
+        <v>0.2941498906690184</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>623</v>
@@ -5412,19 +5412,19 @@
         <v>509855</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>473047</v>
+        <v>472473</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>549109</v>
+        <v>547776</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2418911589266247</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2244281554979085</v>
+        <v>0.2241558928907628</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2605145425412613</v>
+        <v>0.2598817741707351</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>782575</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>750756</v>
+        <v>756869</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>806920</v>
+        <v>809142</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7904302812959866</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7582917328215283</v>
+        <v>0.7644663825266059</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8150194810086577</v>
+        <v>0.8172644008134218</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1145</v>
@@ -5462,19 +5462,19 @@
         <v>815358</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>787983</v>
+        <v>788947</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>841514</v>
+        <v>840296</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7294790735959494</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7049877696015983</v>
+        <v>0.7058501093309811</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7528807754712987</v>
+        <v>0.7517908055876199</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1943</v>
@@ -5483,19 +5483,19 @@
         <v>1597933</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1558679</v>
+        <v>1560012</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1634741</v>
+        <v>1635315</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7581088410733753</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7394854574587385</v>
+        <v>0.7401182258292649</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7755718445020915</v>
+        <v>0.7758441071092372</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>733182</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>680790</v>
+        <v>676955</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>785097</v>
+        <v>784872</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2076537677813644</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1928149592804362</v>
+        <v>0.191728900778507</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2223571642903723</v>
+        <v>0.2222933387858264</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1313</v>
@@ -5608,19 +5608,19 @@
         <v>934729</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>886223</v>
+        <v>890530</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>981969</v>
+        <v>986502</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2507209178145915</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.237710050008088</v>
+        <v>0.238865324630576</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2633919701758674</v>
+        <v>0.2646079491746523</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2008</v>
@@ -5629,19 +5629,19 @@
         <v>1667911</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1599061</v>
+        <v>1606087</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1740913</v>
+        <v>1741041</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.229772851941286</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2202879314546853</v>
+        <v>0.2212558337857704</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2398296367169328</v>
+        <v>0.2398472623540909</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2797610</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2745695</v>
+        <v>2745920</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2850002</v>
+        <v>2853837</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7923462322186355</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7776428357096279</v>
+        <v>0.7777066612141736</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8071850407195638</v>
+        <v>0.808271099221493</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4043</v>
@@ -5679,19 +5679,19 @@
         <v>2793437</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2746197</v>
+        <v>2741664</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2841943</v>
+        <v>2837636</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7492790821854085</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7366080298241331</v>
+        <v>0.7353920508253479</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.762289949991912</v>
+        <v>0.7611346753694243</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6723</v>
@@ -5700,19 +5700,19 @@
         <v>5591047</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5518045</v>
+        <v>5517917</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5659897</v>
+        <v>5652871</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.770227148058714</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7601703632830673</v>
+        <v>0.7601527376459092</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7797120685453148</v>
+        <v>0.7787441662142296</v>
       </c>
     </row>
     <row r="18">
